--- a/Components/Qwiic_Adaptive_Switch_BOM.xlsx
+++ b/Components/Qwiic_Adaptive_Switch_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Qwiic-Adaptive-Switch\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5BB36-9CAF-458E-88C0-C18C0FD29CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EDB520-CB17-4E46-A54F-9CA765F5D7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{719C99AD-2C3F-4D42-AF1B-D5336E240296}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>RES 10K OHM 1/4W 5% AXIAL</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/sparkfun-electronics/PRT-14417/7652746</t>
-  </si>
-  <si>
     <t>PRT-14417-ND</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>QWIIC JST CONNECTOR - SMD 4-PIN</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/sparkfun-electronics/PRT-16766/12340136</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -605,22 +605,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -662,7 +662,7 @@
       </c>
       <c r="G14">
         <f>G2*B2+G3*B3+G4*B4</f>
-        <v>4.74</v>
+        <v>4.93</v>
       </c>
     </row>
   </sheetData>

--- a/Components/Qwiic_Adaptive_Switch_BOM.xlsx
+++ b/Components/Qwiic_Adaptive_Switch_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Qwiic-Adaptive-Switch\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EDB520-CB17-4E46-A54F-9CA765F5D7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5281D705-3AB6-4AEC-86CA-5BA10184C8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{719C99AD-2C3F-4D42-AF1B-D5336E240296}"/>
   </bookViews>
@@ -96,7 +96,7 @@
     <t>QWIIC JST CONNECTOR - SMD 4-PIN</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/sparkfun-electronics/PRT-16766/12340136</t>
+    <t>https://www.digikey.ca/en/products/detail/sparkfun-electronics/PRT-14417/7652746</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Components/Qwiic_Adaptive_Switch_BOM.xlsx
+++ b/Components/Qwiic_Adaptive_Switch_BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,33 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Qwiic-Adaptive-Switch\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5281D705-3AB6-4AEC-86CA-5BA10184C8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{353B4ED5-248C-4994-9E0A-8B86AF0B242F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{719C99AD-2C3F-4D42-AF1B-D5336E240296}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Qwiic_Adaptive_Switch_BO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Index</t>
   </si>
@@ -51,59 +37,146 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Unit Price (C)</t>
+  </si>
+  <si>
+    <t>Total Price (CA)</t>
+  </si>
+  <si>
     <t>Link</t>
   </si>
   <si>
+    <t>CP1-3513-ND</t>
+  </si>
+  <si>
+    <t>SJ1-3513</t>
+  </si>
+  <si>
     <t>CONN JACK STEREO 3.5MM R/A</t>
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/cui-devices/SJ1-3513/738683</t>
   </si>
   <si>
-    <t>Total Price (CA)</t>
-  </si>
-  <si>
-    <t>Unit Price (C)</t>
-  </si>
-  <si>
-    <t>CP1-3513-ND</t>
-  </si>
-  <si>
-    <t>SJ1-3513</t>
+    <t>https://www.digikey.ca/en/products/detail/yageo/CFR-25JB-52-10K/338</t>
+  </si>
+  <si>
+    <t>PRT-14417-ND</t>
+  </si>
+  <si>
+    <t>PRT-14417</t>
+  </si>
+  <si>
+    <t>QWIIC JST CONNECTOR - SMD 4-PIN</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/sparkfun-electronics/PRT-14417/7652746</t>
   </si>
   <si>
     <t>Total Price:</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/CFR-25JB-52-10K/338</t>
-  </si>
-  <si>
-    <t>CFR-25JB-52-10K</t>
-  </si>
-  <si>
-    <t>10KQBK-ND</t>
-  </si>
-  <si>
-    <t>RES 10K OHM 1/4W 5% AXIAL</t>
-  </si>
-  <si>
-    <t>PRT-14417-ND</t>
-  </si>
-  <si>
-    <t>PRT-14417</t>
-  </si>
-  <si>
-    <t>QWIIC JST CONNECTOR - SMD 4-PIN</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/sparkfun-electronics/PRT-14417/7652746</t>
+    <t>296-40574-2-ND</t>
+  </si>
+  <si>
+    <t>TCA9534PWR</t>
+  </si>
+  <si>
+    <t>IC I/O EXPANDER I2C 8B 16TSSOP</t>
+  </si>
+  <si>
+    <t>YAG1237TR-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 0.1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RT0603BRD071KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-072K2L/727016</t>
+  </si>
+  <si>
+    <t>RES SMD 2.2K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>311-2.20KHRTR-ND</t>
+  </si>
+  <si>
+    <t>R1,R2,R3,R4,R5</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SW1,SW2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RT0603DRD0710KL/1035416</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 0.5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RT0603DRD0710KL</t>
+  </si>
+  <si>
+    <t>311-10KDTR-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RT0603BRD071KL/1072344</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/taiyo-yuden/TMK107BJ104KA-T/930597</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 25V X5R 0603</t>
+  </si>
+  <si>
+    <t>587-1245-2-ND</t>
+  </si>
+  <si>
+    <t>TMK107BJ104KA-T</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/lite-on-inc/LTST-C190KRKT/386817</t>
+  </si>
+  <si>
+    <t>LED RED CLEAR CHIP SMD</t>
+  </si>
+  <si>
+    <t>LTST-C190KRKT</t>
+  </si>
+  <si>
+    <t>160-1436-2-ND</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>J2,J3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +185,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,6 +305,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -127,36 +319,189 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -164,34 +509,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,176 +1020,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FC8799-79C0-4E0E-8329-01AC85D961C7}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1.97</v>
+      </c>
+      <c r="H2">
+        <v>1.97</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1.75</v>
+      </c>
+      <c r="H3">
+        <v>1.75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0.69</v>
+      </c>
+      <c r="H4">
+        <v>0.69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0.15</v>
+      </c>
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>0.47</v>
+      </c>
+      <c r="H7">
+        <v>0.47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>0.33</v>
+      </c>
+      <c r="H9">
+        <v>0.33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.97</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.97</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="F14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <f>G2*B2+G3*B3+G4*B4</f>
-        <v>4.93</v>
+      <c r="H13">
+        <f>(H2*B2+H3*B3+H4*B4+H5*B5+H6*B6+H7*B7+H8*B8+H9*B9)</f>
+        <v>9.0100000000000016</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{948A4CB5-0CD4-49BD-86EB-492F5C7F7078}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{B749DADE-7E8A-435C-9E10-DD3B22555806}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{23045E8C-B871-4BC9-B1B2-F3DCAAEDD4CB}"/>
+    <hyperlink ref="I5" r:id="rId1"/>
+    <hyperlink ref="I8" r:id="rId2"/>
+    <hyperlink ref="I9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Components/Qwiic_Adaptive_Switch_BOM.xlsx
+++ b/Components/Qwiic_Adaptive_Switch_BOM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Qwiic-Adaptive-Switch\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{353B4ED5-248C-4994-9E0A-8B86AF0B242F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F0221A-8240-4849-9930-67EDC48BA87B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016"/>
   </bookViews>
   <sheets>
-    <sheet name="Qwiic_Adaptive_Switch_BO" sheetId="1" r:id="rId1"/>
+    <sheet name="Qwiic_Adaptive_Switch_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -28,6 +28,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>Digikey Part Number</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>Link</t>
   </si>
   <si>
+    <t>SW1,SW2</t>
+  </si>
+  <si>
     <t>CP1-3513-ND</t>
   </si>
   <si>
@@ -58,7 +64,19 @@
     <t>https://www.digikey.ca/en/products/detail/cui-devices/SJ1-3513/738683</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/CFR-25JB-52-10K/338</t>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>296-40574-2-ND</t>
+  </si>
+  <si>
+    <t>TCA9534PWR</t>
+  </si>
+  <si>
+    <t>IC I/O EXPANDER I2C 8B 16TSSOP</t>
+  </si>
+  <si>
+    <t>J2,J3</t>
   </si>
   <si>
     <t>PRT-14417-ND</t>
@@ -73,103 +91,85 @@
     <t>https://www.digikey.ca/en/products/detail/sparkfun-electronics/PRT-14417/7652746</t>
   </si>
   <si>
+    <t>R1,R2,R3,R4,R5</t>
+  </si>
+  <si>
+    <t>311-2.20KHRTR-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>RES SMD 2.2K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-072K2L/727016</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>311-10KDTR-ND</t>
+  </si>
+  <si>
+    <t>RT0603DRD0710KL</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 0.5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RT0603DRD0710KL/1035416</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>YAG1237TR-ND</t>
+  </si>
+  <si>
+    <t>RT0603BRD071KL</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 0.1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RT0603BRD071KL/1072344</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>587-1245-2-ND</t>
+  </si>
+  <si>
+    <t>TMK107BJ104KA-T</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 25V X5R 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/taiyo-yuden/TMK107BJ104KA-T/930597</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>160-1436-2-ND</t>
+  </si>
+  <si>
+    <t>LTST-C190KRKT</t>
+  </si>
+  <si>
+    <t>LED RED CLEAR CHIP SMD</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/lite-on-inc/LTST-C190KRKT/386817</t>
+  </si>
+  <si>
     <t>Total Price:</t>
   </si>
   <si>
-    <t>296-40574-2-ND</t>
-  </si>
-  <si>
-    <t>TCA9534PWR</t>
-  </si>
-  <si>
-    <t>IC I/O EXPANDER I2C 8B 16TSSOP</t>
-  </si>
-  <si>
-    <t>YAG1237TR-ND</t>
-  </si>
-  <si>
-    <t>RES SMD 1K OHM 0.1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RT0603BRD071KL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-072K2L/727016</t>
-  </si>
-  <si>
-    <t>RES SMD 2.2K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RC0603FR-072K2L</t>
-  </si>
-  <si>
-    <t>311-2.20KHRTR-ND</t>
-  </si>
-  <si>
-    <t>R1,R2,R3,R4,R5</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SW1,SW2</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RT0603DRD0710KL/1035416</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 0.5% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RT0603DRD0710KL</t>
-  </si>
-  <si>
-    <t>311-10KDTR-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RT0603BRD071KL/1072344</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/taiyo-yuden/TMK107BJ104KA-T/930597</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 25V X5R 0603</t>
-  </si>
-  <si>
-    <t>587-1245-2-ND</t>
-  </si>
-  <si>
-    <t>TMK107BJ104KA-T</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/lite-on-inc/LTST-C190KRKT/386817</t>
-  </si>
-  <si>
-    <t>LED RED CLEAR CHIP SMD</t>
-  </si>
-  <si>
-    <t>LTST-C190KRKT</t>
-  </si>
-  <si>
-    <t>160-1436-2-ND</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>J2,J3</t>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/TCA9534PWR/5004966</t>
   </si>
 </sst>
 </file>
@@ -1024,13 +1024,10 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="21" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1040,25 +1037,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1069,16 +1066,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>1.97</v>
@@ -1087,7 +1084,7 @@
         <v>1.97</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1098,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>1.75</v>
@@ -1115,8 +1112,8 @@
       <c r="H3">
         <v>1.75</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1127,16 +1124,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>0.69</v>
@@ -1145,7 +1142,7 @@
         <v>0.69</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1156,16 +1153,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
       </c>
       <c r="G5">
         <v>0.15</v>
@@ -1173,8 +1170,8 @@
       <c r="H5">
         <v>0.15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
+      <c r="I5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1185,16 +1182,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>0.25</v>
@@ -1214,16 +1211,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>0.47</v>
@@ -1243,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
@@ -1260,8 +1257,8 @@
       <c r="H8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>39</v>
+      <c r="I8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1272,16 +1269,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
       </c>
       <c r="G9">
         <v>0.33</v>
@@ -1289,24 +1286,21 @@
       <c r="H9">
         <v>0.33</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>44</v>
+      <c r="I9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H13">
-        <f>(H2*B2+H3*B3+H4*B4+H5*B5+H6*B6+H7*B7+H8*B8+H9*B9)</f>
-        <v>9.0100000000000016</v>
+        <v>9.01</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1"/>
-    <hyperlink ref="I8" r:id="rId2"/>
-    <hyperlink ref="I9" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Qwiic_Adaptive_Switch_BOM.xlsx
+++ b/Components/Qwiic_Adaptive_Switch_BOM.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Qwiic-Adaptive-Switch\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F0221A-8240-4849-9930-67EDC48BA87B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985AAE7B-AADE-4622-84FD-5B6C367A3B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Qwiic_Adaptive_Switch_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,15 +78,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>296-40574-2-ND</t>
-  </si>
-  <si>
-    <t>TCA9534PWR</t>
-  </si>
-  <si>
-    <t>IC I/O EXPANDER I2C 8B 16TSSOP</t>
-  </si>
-  <si>
     <t>J2,J3</t>
   </si>
   <si>
@@ -169,13 +171,22 @@
     <t>Total Price:</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/texas-instruments/TCA9534PWR/5004966</t>
+    <t>296-47827-1-ND</t>
+  </si>
+  <si>
+    <t>TCA9534DWR</t>
+  </si>
+  <si>
+    <t>IC I/O EXPANDER I2C 8B 16-SOIC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/TCA9534DWR/6566100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1020,16 +1031,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1087,7 +1098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1098,25 +1109,25 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G3">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="H3">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1124,16 +1135,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
       <c r="G4">
         <v>0.69</v>
@@ -1142,10 +1153,10 @@
         <v>0.69</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1153,16 +1164,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
       </c>
       <c r="G5">
         <v>0.15</v>
@@ -1171,10 +1182,10 @@
         <v>0.15</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1182,16 +1193,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
       <c r="G6">
         <v>0.25</v>
@@ -1200,10 +1211,10 @@
         <v>0.25</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1211,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
       </c>
       <c r="G7">
         <v>0.47</v>
@@ -1229,10 +1240,10 @@
         <v>0.47</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1240,16 +1251,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
       </c>
       <c r="G8">
         <v>0.14000000000000001</v>
@@ -1258,10 +1269,10 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1269,16 +1280,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
       </c>
       <c r="G9">
         <v>0.33</v>
@@ -1287,21 +1298,19 @@
         <v>0.33</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="G13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H13">
-        <v>9.01</v>
+        <f>G2*B2+G3*B3+G4*B4+G5*B5+G6*B6+G7*B7+G8*B8+G9*B9</f>
+        <v>9.0800000000000018</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Components/Qwiic_Adaptive_Switch_BOM.xlsx
+++ b/Components/Qwiic_Adaptive_Switch_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Qwiic-Adaptive-Switch\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985AAE7B-AADE-4622-84FD-5B6C367A3B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EE7B3B-C802-4B2B-9D49-D8E9C7E8C911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Qwiic_Adaptive_Switch_BOM" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Index</t>
   </si>
@@ -93,9 +93,6 @@
     <t>https://www.digikey.ca/en/products/detail/sparkfun-electronics/PRT-14417/7652746</t>
   </si>
   <si>
-    <t>R1,R2,R3,R4,R5</t>
-  </si>
-  <si>
     <t>311-2.20KHRTR-ND</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-072K2L/727016</t>
   </si>
   <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>311-10KDTR-ND</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>https://www.digikey.ca/en/products/detail/yageo/RT0603DRD0710KL/1035416</t>
   </si>
   <si>
-    <t>R7</t>
-  </si>
-  <si>
     <t>YAG1237TR-ND</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>https://www.digikey.ca/en/products/detail/yageo/RT0603BRD071KL/1072344</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>587-1245-2-ND</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>https://www.digikey.ca/en/products/detail/taiyo-yuden/TMK107BJ104KA-T/930597</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>160-1436-2-ND</t>
   </si>
   <si>
@@ -181,6 +166,43 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/texas-instruments/TCA9534DWR/6566100</t>
+  </si>
+  <si>
+    <t>LED (D1)</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>0.1 µF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red 631nm LED </t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+QWIIC JST</t>
+  </si>
+  <si>
+    <t>R1,R2,R7,R8,R9</t>
+  </si>
+  <si>
+    <t>R3,R5,R6</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
 </sst>
 </file>
@@ -673,9 +695,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1032,15 +1057,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,25 +1079,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1080,25 +1111,28 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2">
-        <v>1.97</v>
       </c>
       <c r="H2">
         <v>1.97</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>1.97</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1109,25 +1143,28 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3">
-        <v>1.82</v>
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
       </c>
       <c r="H3">
         <v>1.82</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>49</v>
+      <c r="I3">
+        <v>1.82</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1137,26 +1174,29 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0.69</v>
       </c>
       <c r="H4">
         <v>0.69</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>0.69</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1164,57 +1204,63 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>0.15</v>
       </c>
       <c r="H5">
         <v>0.15</v>
       </c>
-      <c r="I5" t="s">
-        <v>24</v>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6">
-        <v>0.25</v>
       </c>
       <c r="H6">
         <v>0.25</v>
       </c>
-      <c r="I6" t="s">
-        <v>29</v>
+      <c r="I6">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1222,28 +1268,31 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <v>0.47</v>
       </c>
       <c r="H7">
         <v>0.47</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="I7">
+        <v>0.47</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1251,28 +1300,31 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>0.14000000000000001</v>
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
       <c r="H8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I8" t="s">
-        <v>39</v>
+      <c r="I8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1280,37 +1332,50 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9">
-        <v>0.33</v>
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
       </c>
       <c r="H9">
         <v>0.33</v>
       </c>
-      <c r="I9" t="s">
-        <v>44</v>
+      <c r="I9">
+        <v>0.33</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13">
-        <f>G2*B2+G3*B3+G4*B4+G5*B5+G6*B6+G7*B7+G8*B8+G9*B9</f>
-        <v>9.0800000000000018</v>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <f>H2*B2+H3*B3+H4*B4+H5*B5+H6*B6+H7*B7+H8*B8+H9*B9</f>
+        <v>9.5800000000000018</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{7CFB89AE-3D4D-4CA9-B93C-DCC08D3DA9CE}"/>
+    <hyperlink ref="J9" r:id="rId2" xr:uid="{302D5C69-202C-4864-974C-E201C538E929}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{65D4B927-EC5B-49D1-B880-42371423F319}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{DAF42746-61D3-45DF-8D5F-5877A0BDE783}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{EC465C77-9FC5-474C-A61A-5C7BBFC37E55}"/>
+    <hyperlink ref="J3" r:id="rId6" xr:uid="{AE3C2BE3-D8F3-46EC-8BC6-61EF2C802E50}"/>
+    <hyperlink ref="J2" r:id="rId7" xr:uid="{FA1A89EA-09EA-4668-9F95-F10032EFB685}"/>
+    <hyperlink ref="J4" r:id="rId8" xr:uid="{FA24F7A0-85F2-4300-90CB-2A9426B2C7C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Components/Qwiic_Adaptive_Switch_BOM.xlsx
+++ b/Components/Qwiic_Adaptive_Switch_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Qwiic-Adaptive-Switch\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EE7B3B-C802-4B2B-9D49-D8E9C7E8C911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3FBD5A-2783-4227-B6F6-D1062E36BB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,13 +196,13 @@
 QWIIC JST</t>
   </si>
   <si>
-    <t>R1,R2,R7,R8,R9</t>
-  </si>
-  <si>
-    <t>R3,R5,R6</t>
-  </si>
-  <si>
     <t>R4</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R1,R2,R5,R6,R7,R8,R9</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,10 +1201,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -1233,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I13">
         <f>H2*B2+H3*B3+H4*B4+H5*B5+H6*B6+H7*B7+H8*B8+H9*B9</f>
-        <v>9.5800000000000018</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
   </sheetData>

--- a/Components/Qwiic_Adaptive_Switch_BOM.xlsx
+++ b/Components/Qwiic_Adaptive_Switch_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Qwiic-Adaptive-Switch\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3FBD5A-2783-4227-B6F6-D1062E36BB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F187F832-9D57-43CF-8D3C-8765A6A34A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5293" yWindow="2927" windowWidth="19200" windowHeight="11273" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Qwiic_Adaptive_Switch_BOM" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Index</t>
   </si>
@@ -78,9 +78,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>J2,J3</t>
-  </si>
-  <si>
     <t>PRT-14417-ND</t>
   </si>
   <si>
@@ -105,30 +102,6 @@
     <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-072K2L/727016</t>
   </si>
   <si>
-    <t>311-10KDTR-ND</t>
-  </si>
-  <si>
-    <t>RT0603DRD0710KL</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 0.5% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RT0603DRD0710KL/1035416</t>
-  </si>
-  <si>
-    <t>YAG1237TR-ND</t>
-  </si>
-  <si>
-    <t>RT0603BRD071KL</t>
-  </si>
-  <si>
-    <t>RES SMD 1K OHM 0.1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RT0603BRD071KL/1072344</t>
-  </si>
-  <si>
     <t>587-1245-2-ND</t>
   </si>
   <si>
@@ -192,17 +165,61 @@
     <t>2.2K</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-QWIIC JST</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>R1,R2,R5,R6,R7,R8,R9</t>
+    <t>R1,R2,R7,R8,R9</t>
+  </si>
+  <si>
+    <t>R5,R6</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>311-4.7KGRTR-ND</t>
+  </si>
+  <si>
+    <t>RC0603JR-074K7L</t>
+  </si>
+  <si>
+    <t>RES SMD 4.7K OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603JR-074K7L/726785</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603JR-0710KL/726700</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311-10KGRTR-ND </t>
+  </si>
+  <si>
+    <t>RC0603JR-0710KL</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0603FR-071KL/726843</t>
+  </si>
+  <si>
+    <t>311-1.00KHRTR-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>QWIIC JST</t>
+  </si>
+  <si>
+    <t>J1,J3</t>
   </si>
 </sst>
 </file>
@@ -1060,15 +1077,15 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1100,7 +1117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1128,11 +1145,11 @@
       <c r="I2">
         <v>1.97</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1143,16 +1160,16 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>1.82</v>
@@ -1160,11 +1177,11 @@
       <c r="I3">
         <v>1.82</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
+      <c r="J3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1172,19 +1189,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
       <c r="H4">
         <v>0.69</v>
@@ -1192,31 +1209,31 @@
       <c r="I4">
         <v>0.69</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
+      <c r="J4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
       <c r="H5">
         <v>0.15</v>
@@ -1224,11 +1241,11 @@
       <c r="I5">
         <v>0.15</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
+      <c r="J5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1236,31 +1253,31 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H6">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I6">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1268,63 +1285,63 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I7">
-        <v>0.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I8">
         <v>0.14000000000000001</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1332,49 +1349,78 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9">
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
         <v>0.33</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>0.33</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>39</v>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="H13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I13">
-        <f>H2*B2+H3*B3+H4*B4+H5*B5+H6*B6+H7*B7+H8*B8+H9*B9</f>
-        <v>9.3800000000000008</v>
+        <f>H2*B2+H3*B3+H4*B4+H5*B5+H6*B6+H7*B7+H8*B8+H9*B9+H10*B10</f>
+        <v>9.14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1" xr:uid="{7CFB89AE-3D4D-4CA9-B93C-DCC08D3DA9CE}"/>
-    <hyperlink ref="J9" r:id="rId2" xr:uid="{302D5C69-202C-4864-974C-E201C538E929}"/>
-    <hyperlink ref="J7" r:id="rId3" xr:uid="{65D4B927-EC5B-49D1-B880-42371423F319}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{DAF42746-61D3-45DF-8D5F-5877A0BDE783}"/>
-    <hyperlink ref="J5" r:id="rId5" xr:uid="{EC465C77-9FC5-474C-A61A-5C7BBFC37E55}"/>
-    <hyperlink ref="J3" r:id="rId6" xr:uid="{AE3C2BE3-D8F3-46EC-8BC6-61EF2C802E50}"/>
-    <hyperlink ref="J2" r:id="rId7" xr:uid="{FA1A89EA-09EA-4668-9F95-F10032EFB685}"/>
-    <hyperlink ref="J4" r:id="rId8" xr:uid="{FA24F7A0-85F2-4300-90CB-2A9426B2C7C6}"/>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{57F48D8A-3087-47C8-A385-FEC943BA2F89}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{303FD325-93A2-4122-A17E-C111FE863494}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{45ABB9EA-EB9F-4A28-9ABF-7C64A3A6F5DB}"/>
+    <hyperlink ref="J9" r:id="rId4" xr:uid="{9B4361CF-880F-4767-81AA-95457881CD70}"/>
+    <hyperlink ref="J10" r:id="rId5" xr:uid="{3E4978E0-C4E0-49A4-8EB1-E99414799B0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
